--- a/biology/Biochimie/Oxydoréductase/Oxydoréductase.xlsx
+++ b/biology/Biochimie/Oxydoréductase/Oxydoréductase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxydor%C3%A9ductase</t>
+          <t>Oxydoréductase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, les oxydoréductases sont des enzymes catalysant les réactions d'oxydoréduction en transférant les ions H+ et des électrons.
 Elles sont associées à des coenzymes d'oxydoréduction (NAD, FAD, FMN, etc.).
@@ -492,7 +504,7 @@
 dioxygénases ;
 hydrogénases ;
 déshydrogénases.
-Certaines de ces enzymes produisent des radicaux libres, d'autres (superoxyde dismutases, glutathion peroxydases, catalases) sont impliquées dans la réponse au stress oxydatif, formant la première ligne de défense contre les dérivés réactifs de l'oxygène[1].
+Certaines de ces enzymes produisent des radicaux libres, d'autres (superoxyde dismutases, glutathion peroxydases, catalases) sont impliquées dans la réponse au stress oxydatif, formant la première ligne de défense contre les dérivés réactifs de l'oxygène.
 </t>
         </is>
       </c>
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxydor%C3%A9ductase</t>
+          <t>Oxydoréductase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Réactions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une enzyme catalysant une réaction du type :
 A− + B → A + B−
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxydor%C3%A9ductase</t>
+          <t>Oxydoréductase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,7 +576,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les oxydoréductases sont classées EC 1 dans la nomenclature EC des enzymes. Les oxydoréductases peuvent être ensuite divisées en 22 sous-catégories :
 EC 1.1 qui regroupe les oxydoréductases qui agissent sur les groupes donneurs CH-OH (alcool oxydoréductase) ;
